--- a/flows/HYLB_fund_flow_data.xlsx
+++ b/flows/HYLB_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1822"/>
+  <dimension ref="A1:B1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18655,6 +18655,126 @@
         <v>7.0934</v>
       </c>
     </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>-60.2786</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>14.1588</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>-10.6272</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>-70.884</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1828" t="n">
+        <v>7.1012</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1829" t="n">
+        <v>-10.6698</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1830" t="n">
+        <v>7.1254</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1831" t="n">
+        <v>7.1204</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1832" t="n">
+        <v>10.6836</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1833" t="n">
+        <v>-57.0288</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1834" t="n">
+        <v>-17.765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
